--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cianfar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2A930-F649-42F2-B804-ECFE267C9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466EFF42-5280-43CA-AF81-7401EF9ED1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D22621E0-F385-40DD-BF7F-456409FE71E3}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>If the project is interesting, I don't mind.</t>
   </si>
   <si>
-    <t>I never count my hours : if there's work to do, I will stay until it's done, and expect others to do the same.</t>
-  </si>
-  <si>
     <t>After sending an important report, you realise there was a small mistake in one of the key figures. What do you do?</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>What do you think of remote working?</t>
   </si>
   <si>
-    <t xml:space="preserve">I love it : how else would I find the time to do my laundry? </t>
-  </si>
-  <si>
     <t>It's nice to have some flexibility, which helps ensure a good work-life balance.</t>
   </si>
   <si>
@@ -364,6 +358,12 @@
   </si>
   <si>
     <t>Not much. I think about the work I'm doing more than what  I or others may be feeling in a particular situation.</t>
+  </si>
+  <si>
+    <t>I  really like it; it can be especially useful to  complete non-work tasks during the work day.</t>
+  </si>
+  <si>
+    <t>I never count my hours : if there's work to do, I will stay until it's done.</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,397 +740,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A078A1FD-A1C9-45BA-8AD3-5E0F54D96A2B}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="U6" sqref="T6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="30.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>3</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -1141,10 +1147,10 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1153,185 +1159,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1358,185 +1364,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
+      <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
       </c>
       <c r="G20">
         <v>0</v>
